--- a/Papers/Reading_schedule.xlsx
+++ b/Papers/Reading_schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eigenaar\Documents\GitHub\EPA1361\Papers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ABABA1E-C88E-4FC0-AFAE-C993ED5F552E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49531B04-5EE0-457E-B373-8AD2E414E07D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -212,9 +212,6 @@
     <t>Total</t>
   </si>
   <si>
-    <t>Could not find this paper anywhere, asked kwakkel</t>
-  </si>
-  <si>
     <t>Only chapter in the book, in pdf page 64-79</t>
   </si>
   <si>
@@ -258,6 +255,9 @@
   </si>
   <si>
     <t>Floris &amp; Bram</t>
+  </si>
+  <si>
+    <t>Not the whole book, only Chapter 15!</t>
   </si>
 </sst>
 </file>
@@ -598,8 +598,8 @@
   <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -728,17 +728,19 @@
       <c r="B8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="2"/>
+      <c r="C8" s="2">
+        <v>20</v>
+      </c>
       <c r="D8" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <f t="shared" ref="A9:A25" si="0">A3+7</f>
+        <f t="shared" ref="A9:A17" si="0">A3+7</f>
         <v>44315</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -748,7 +750,7 @@
         <v>17</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E9" s="2"/>
     </row>
@@ -764,7 +766,7 @@
         <v>18</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E10" s="2"/>
     </row>
@@ -780,7 +782,7 @@
         <v>7</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E11" s="2"/>
     </row>
@@ -796,7 +798,7 @@
         <v>7</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E12" s="2"/>
     </row>
@@ -812,7 +814,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E13" s="2"/>
     </row>
@@ -828,7 +830,7 @@
         <v>16</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E14" s="2"/>
     </row>
@@ -844,7 +846,7 @@
         <v>15</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E15" s="2"/>
     </row>
@@ -860,7 +862,7 @@
         <v>15</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E16" s="2"/>
     </row>
@@ -876,7 +878,7 @@
         <v>17</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E17" s="2"/>
     </row>
@@ -892,13 +894,13 @@
         <v>11</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <f t="shared" ref="A19:A25" si="1">A15+7</f>
+        <f t="shared" ref="A19:A20" si="1">A15+7</f>
         <v>44329</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -908,7 +910,7 @@
         <v>16</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E19" s="2"/>
     </row>
@@ -924,7 +926,7 @@
         <v>22</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E20" s="2"/>
     </row>
@@ -940,13 +942,13 @@
         <v>19</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <f t="shared" ref="A22:A33" si="2">A19+7</f>
+        <f t="shared" ref="A22:A23" si="2">A19+7</f>
         <v>44336</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -956,7 +958,7 @@
         <v>17</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E22" s="2"/>
     </row>
@@ -972,7 +974,7 @@
         <v>12</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E23" s="2"/>
     </row>
@@ -988,13 +990,13 @@
         <v>23</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E24" s="2"/>
     </row>
     <row r="25" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <f t="shared" ref="A25:A34" si="3">A19+7</f>
+        <f t="shared" ref="A25:A28" si="3">A19+7</f>
         <v>44336</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -1004,7 +1006,7 @@
         <v>13</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E25" s="2"/>
     </row>
@@ -1020,7 +1022,7 @@
         <v>14</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E26" s="2"/>
     </row>
@@ -1036,7 +1038,7 @@
         <v>14</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -1051,10 +1053,10 @@
         <v>15</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="90" x14ac:dyDescent="0.25">
@@ -1074,7 +1076,7 @@
     </row>
     <row r="30" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <f t="shared" ref="A30:A40" si="4">A28+7</f>
+        <f t="shared" ref="A30:A32" si="4">A28+7</f>
         <v>44350</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -1084,7 +1086,7 @@
         <v>11</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -1099,7 +1101,7 @@
         <v>24</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -1114,7 +1116,7 @@
         <v>21</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -1134,7 +1136,7 @@
     </row>
     <row r="34" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <f t="shared" ref="A34:A45" si="5">A30+7</f>
+        <f t="shared" ref="A34" si="5">A30+7</f>
         <v>44357</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -1452,7 +1454,7 @@
     </row>
     <row r="9" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B9">
         <v>11</v>

--- a/Papers/Reading_schedule.xlsx
+++ b/Papers/Reading_schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eigenaar\Documents\GitHub\EPA1361\Papers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ambro\PycharmProjects\EPA1361\Papers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49531B04-5EE0-457E-B373-8AD2E414E07D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B123D5F3-12C2-49F6-9727-7841A0AC4506}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reading Planning" sheetId="1" r:id="rId1"/>
@@ -34,6 +34,24 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={FA093EEE-325F-413F-ADF3-5A1DAD3C4901}</author>
+  </authors>
+  <commentList>
+    <comment ref="A9" authorId="0" shapeId="0" xr:uid="{FA093EEE-325F-413F-ADF3-5A1DAD3C4901}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Bias,Bias,Bias @Stephan</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="74">
   <si>
@@ -212,6 +230,9 @@
     <t>Total</t>
   </si>
   <si>
+    <t>Could not find this paper anywhere, asked kwakkel</t>
+  </si>
+  <si>
     <t>Only chapter in the book, in pdf page 64-79</t>
   </si>
   <si>
@@ -255,16 +276,13 @@
   </si>
   <si>
     <t>Floris &amp; Bram</t>
-  </si>
-  <si>
-    <t>Not the whole book, only Chapter 15!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -279,6 +297,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -317,7 +341,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,6 +354,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Johnny Thunder" id="{F3A1EA94-1CA9-41CE-A10C-6D7753F20E81}" userId="283526bb54fb9cdb" providerId="Windows Live"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -593,25 +623,33 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A9" dT="2021-04-19T21:38:00.66" personId="{F3A1EA94-1CA9-41CE-A10C-6D7753F20E81}" id="{FA093EEE-325F-413F-ADF3-5A1DAD3C4901}">
+    <text>Bias,Bias,Bias @Stephan</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
-    <col min="2" max="2" width="65.42578125" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" customWidth="1"/>
-    <col min="5" max="5" width="57.85546875" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="65.44140625" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" customWidth="1"/>
+    <col min="5" max="5" width="57.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -628,7 +666,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>44308</v>
       </c>
@@ -645,7 +683,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>44308</v>
       </c>
@@ -660,7 +698,7 @@
       </c>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>44308</v>
       </c>
@@ -675,7 +713,7 @@
       </c>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>44308</v>
       </c>
@@ -690,7 +728,7 @@
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>44308</v>
       </c>
@@ -705,7 +743,7 @@
       </c>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>44308</v>
       </c>
@@ -720,7 +758,7 @@
       </c>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <f>A2+7</f>
         <v>44315</v>
@@ -728,17 +766,15 @@
       <c r="B8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="2">
-        <v>20</v>
-      </c>
+      <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <f t="shared" ref="A9:A17" si="0">A3+7</f>
         <v>44315</v>
@@ -750,11 +786,11 @@
         <v>17</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <f t="shared" si="0"/>
         <v>44315</v>
@@ -766,11 +802,11 @@
         <v>18</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <f t="shared" si="0"/>
         <v>44315</v>
@@ -782,11 +818,11 @@
         <v>7</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <f t="shared" si="0"/>
         <v>44315</v>
@@ -798,11 +834,11 @@
         <v>7</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <f t="shared" si="0"/>
         <v>44315</v>
@@ -814,11 +850,11 @@
         <v>10</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <f t="shared" si="0"/>
         <v>44322</v>
@@ -830,11 +866,11 @@
         <v>16</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <f t="shared" si="0"/>
         <v>44322</v>
@@ -846,11 +882,11 @@
         <v>15</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <f t="shared" si="0"/>
         <v>44322</v>
@@ -862,11 +898,11 @@
         <v>15</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <f t="shared" si="0"/>
         <v>44322</v>
@@ -878,11 +914,11 @@
         <v>17</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <f>A14+7</f>
         <v>44329</v>
@@ -894,11 +930,11 @@
         <v>11</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <f t="shared" ref="A19:A20" si="1">A15+7</f>
         <v>44329</v>
@@ -910,11 +946,11 @@
         <v>16</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <f t="shared" si="1"/>
         <v>44329</v>
@@ -926,11 +962,11 @@
         <v>22</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <f>A18+7</f>
         <v>44336</v>
@@ -942,11 +978,11 @@
         <v>19</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <f t="shared" ref="A22:A23" si="2">A19+7</f>
         <v>44336</v>
@@ -958,11 +994,11 @@
         <v>17</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <f t="shared" si="2"/>
         <v>44336</v>
@@ -974,11 +1010,11 @@
         <v>12</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <f>A18+7</f>
         <v>44336</v>
@@ -990,11 +1026,11 @@
         <v>23</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <f t="shared" ref="A25:A28" si="3">A19+7</f>
         <v>44336</v>
@@ -1006,11 +1042,11 @@
         <v>13</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <f t="shared" si="3"/>
         <v>44336</v>
@@ -1022,11 +1058,11 @@
         <v>14</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <f t="shared" si="3"/>
         <v>44343</v>
@@ -1038,10 +1074,10 @@
         <v>14</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <f t="shared" si="3"/>
         <v>44343</v>
@@ -1053,13 +1089,13 @@
         <v>15</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E28" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <f>A27+7</f>
         <v>44350</v>
@@ -1074,7 +1110,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <f t="shared" ref="A30:A32" si="4">A28+7</f>
         <v>44350</v>
@@ -1086,10 +1122,10 @@
         <v>11</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <f t="shared" si="4"/>
         <v>44357</v>
@@ -1101,10 +1137,10 @@
         <v>24</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <f t="shared" si="4"/>
         <v>44357</v>
@@ -1116,10 +1152,10 @@
         <v>21</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <f>A29+7</f>
         <v>44357</v>
@@ -1134,7 +1170,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <f t="shared" ref="A34" si="5">A30+7</f>
         <v>44357</v>
@@ -1149,38 +1185,38 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="2"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
     </row>
   </sheetData>
@@ -1210,19 +1246,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEA7D65F-2AE8-4E13-BCD0-74482BBCF87B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEA7D65F-2AE8-4E13-BCD0-74482BBCF87B}">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>38</v>
       </c>
@@ -1254,7 +1290,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -1287,7 +1323,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>40</v>
       </c>
@@ -1320,7 +1356,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>41</v>
       </c>
@@ -1353,7 +1389,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -1386,7 +1422,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>43</v>
       </c>
@@ -1419,7 +1455,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>44</v>
       </c>
@@ -1452,9 +1488,9 @@
         <v>177</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B9">
         <v>11</v>
@@ -1462,5 +1498,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Papers/Reading_schedule.xlsx
+++ b/Papers/Reading_schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ambro\PycharmProjects\EPA1361\Papers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eigenaar\Documents\GitHub\EPA1361\Papers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B123D5F3-12C2-49F6-9727-7841A0AC4506}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{811AEDD6-2C36-46B5-8596-8E33486E52B0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reading Planning" sheetId="1" r:id="rId1"/>
@@ -42,9 +42,9 @@
   <commentList>
     <comment ref="A9" authorId="0" shapeId="0" xr:uid="{FA093EEE-325F-413F-ADF3-5A1DAD3C4901}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Opmerkingenthread]
+U kunt deze opmerkingenthread lezen in uw versie van Excel. Eventuele wijzigingen aan de thread gaan echter verloren als het bestand wordt geopend in een nieuwere versie van Excel. Meer informatie: https://go.microsoft.com/fwlink/?linkid=870924
+Opmerking:
     Bias,Bias,Bias @Stephan</t>
       </text>
     </comment>
@@ -230,9 +230,6 @@
     <t>Total</t>
   </si>
   <si>
-    <t>Could not find this paper anywhere, asked kwakkel</t>
-  </si>
-  <si>
     <t>Only chapter in the book, in pdf page 64-79</t>
   </si>
   <si>
@@ -276,13 +273,16 @@
   </si>
   <si>
     <t>Floris &amp; Bram</t>
+  </si>
+  <si>
+    <t>Only chapter 15! P357 - 377 in the pdf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -298,25 +298,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -338,10 +326,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -635,21 +623,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" customWidth="1"/>
-    <col min="2" max="2" width="65.44140625" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.44140625" customWidth="1"/>
-    <col min="5" max="5" width="57.88671875" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="65.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" customWidth="1"/>
+    <col min="5" max="5" width="57.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -666,7 +654,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44308</v>
       </c>
@@ -683,7 +671,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>44308</v>
       </c>
@@ -698,7 +686,7 @@
       </c>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>44308</v>
       </c>
@@ -713,7 +701,7 @@
       </c>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>44308</v>
       </c>
@@ -728,7 +716,7 @@
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>44308</v>
       </c>
@@ -743,7 +731,7 @@
       </c>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>44308</v>
       </c>
@@ -758,7 +746,7 @@
       </c>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <f>A2+7</f>
         <v>44315</v>
@@ -766,15 +754,17 @@
       <c r="B8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="2"/>
+      <c r="C8" s="2">
+        <v>20</v>
+      </c>
       <c r="D8" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <f t="shared" ref="A9:A17" si="0">A3+7</f>
         <v>44315</v>
@@ -786,11 +776,11 @@
         <v>17</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <f t="shared" si="0"/>
         <v>44315</v>
@@ -802,11 +792,11 @@
         <v>18</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <f t="shared" si="0"/>
         <v>44315</v>
@@ -818,11 +808,11 @@
         <v>7</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <f t="shared" si="0"/>
         <v>44315</v>
@@ -834,11 +824,11 @@
         <v>7</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <f t="shared" si="0"/>
         <v>44315</v>
@@ -850,11 +840,11 @@
         <v>10</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <f t="shared" si="0"/>
         <v>44322</v>
@@ -866,11 +856,11 @@
         <v>16</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <f t="shared" si="0"/>
         <v>44322</v>
@@ -882,11 +872,11 @@
         <v>15</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <f t="shared" si="0"/>
         <v>44322</v>
@@ -898,11 +888,11 @@
         <v>15</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <f t="shared" si="0"/>
         <v>44322</v>
@@ -914,11 +904,11 @@
         <v>17</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <f>A14+7</f>
         <v>44329</v>
@@ -930,11 +920,11 @@
         <v>11</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <f t="shared" ref="A19:A20" si="1">A15+7</f>
         <v>44329</v>
@@ -946,11 +936,11 @@
         <v>16</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <f t="shared" si="1"/>
         <v>44329</v>
@@ -962,11 +952,11 @@
         <v>22</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <f>A18+7</f>
         <v>44336</v>
@@ -978,11 +968,11 @@
         <v>19</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <f t="shared" ref="A22:A23" si="2">A19+7</f>
         <v>44336</v>
@@ -994,11 +984,11 @@
         <v>17</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <f t="shared" si="2"/>
         <v>44336</v>
@@ -1010,11 +1000,11 @@
         <v>12</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <f>A18+7</f>
         <v>44336</v>
@@ -1026,11 +1016,11 @@
         <v>23</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <f t="shared" ref="A25:A28" si="3">A19+7</f>
         <v>44336</v>
@@ -1042,11 +1032,11 @@
         <v>13</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <f t="shared" si="3"/>
         <v>44336</v>
@@ -1058,11 +1048,11 @@
         <v>14</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <f t="shared" si="3"/>
         <v>44343</v>
@@ -1074,10 +1064,10 @@
         <v>14</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <f t="shared" si="3"/>
         <v>44343</v>
@@ -1089,13 +1079,13 @@
         <v>15</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E28" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <f>A27+7</f>
         <v>44350</v>
@@ -1110,7 +1100,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <f t="shared" ref="A30:A32" si="4">A28+7</f>
         <v>44350</v>
@@ -1122,10 +1112,10 @@
         <v>11</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <f t="shared" si="4"/>
         <v>44357</v>
@@ -1137,10 +1127,10 @@
         <v>24</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <f t="shared" si="4"/>
         <v>44357</v>
@@ -1152,10 +1142,10 @@
         <v>21</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <f>A29+7</f>
         <v>44357</v>
@@ -1170,7 +1160,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <f t="shared" ref="A34" si="5">A30+7</f>
         <v>44357</v>
@@ -1185,38 +1175,38 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="2"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
     </row>
   </sheetData>
@@ -1249,16 +1239,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEA7D65F-2AE8-4E13-BCD0-74482BBCF87B}">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>38</v>
       </c>
@@ -1290,7 +1280,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -1323,7 +1313,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>40</v>
       </c>
@@ -1356,7 +1346,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>41</v>
       </c>
@@ -1364,7 +1354,7 @@
         <v>47</v>
       </c>
       <c r="C4" s="4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D4">
         <v>15</v>
@@ -1386,10 +1376,10 @@
       </c>
       <c r="J4">
         <f t="shared" si="0"/>
-        <v>168</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -1397,7 +1387,7 @@
         <v>46</v>
       </c>
       <c r="C5" s="4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D5">
         <v>32</v>
@@ -1419,10 +1409,10 @@
       </c>
       <c r="J5">
         <f t="shared" si="0"/>
-        <v>176</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>43</v>
       </c>
@@ -1455,7 +1445,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>44</v>
       </c>
@@ -1488,9 +1478,9 @@
         <v>177</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B9">
         <v>11</v>
